--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.05680966666667</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N2">
-        <v>213.170429</v>
+        <v>0.017021</v>
       </c>
       <c r="O2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q2">
-        <v>3329.616344761613</v>
+        <v>0.00023574085</v>
       </c>
       <c r="R2">
-        <v>29966.54710285452</v>
+        <v>0.00212166765</v>
       </c>
       <c r="S2">
-        <v>0.1418140300891309</v>
+        <v>1.810466304582392E-05</v>
       </c>
       <c r="T2">
-        <v>0.141814030089131</v>
+        <v>1.810466304582392E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005673666666666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N3">
-        <v>0.017021</v>
+        <v>0.12082</v>
       </c>
       <c r="O3">
-        <v>7.979531220238203E-05</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P3">
-        <v>7.979531220238202E-05</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q3">
-        <v>0.2658595756927778</v>
+        <v>0.001673357</v>
       </c>
       <c r="R3">
-        <v>2.392736181235</v>
+        <v>0.015060213</v>
       </c>
       <c r="S3">
-        <v>1.132341205799749E-05</v>
+        <v>0.0001285121549378089</v>
       </c>
       <c r="T3">
-        <v>1.132341205799749E-05</v>
+        <v>0.000128512154937809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>283.1772156666667</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>849.531647</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04027333333333333</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N4">
-        <v>0.12082</v>
+        <v>0.017021</v>
       </c>
       <c r="O4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q4">
-        <v>1.887148459855555</v>
+        <v>1.606653129287444</v>
       </c>
       <c r="R4">
-        <v>16.9843361387</v>
+        <v>14.459878163587</v>
       </c>
       <c r="S4">
-        <v>8.03768665088571E-05</v>
+        <v>0.1233893639446356</v>
       </c>
       <c r="T4">
-        <v>8.037686650885712E-05</v>
+        <v>0.1233893639446356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>71.05680966666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N5">
-        <v>213.170429</v>
+        <v>0.12082</v>
       </c>
       <c r="O5">
-        <v>0.9993537943934382</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P5">
-        <v>0.9993537943934382</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q5">
-        <v>20121.66951556295</v>
+        <v>11.40449039894889</v>
       </c>
       <c r="R5">
-        <v>181095.0256400666</v>
+        <v>102.64041359054</v>
       </c>
       <c r="S5">
-        <v>0.8570161696295658</v>
+        <v>0.8758535310375934</v>
       </c>
       <c r="T5">
-        <v>0.8570161696295659</v>
+        <v>0.8758535310375936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>283.1772156666667</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H6">
-        <v>849.531647</v>
+        <v>0.519022</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.017021</v>
       </c>
       <c r="O6">
-        <v>7.979531220238203E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P6">
-        <v>7.979531220238202E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q6">
-        <v>1.606653129287444</v>
+        <v>0.0009815859402222222</v>
       </c>
       <c r="R6">
-        <v>14.459878163587</v>
+        <v>0.008834273462000001</v>
       </c>
       <c r="S6">
-        <v>6.843009272765897E-05</v>
+        <v>7.538482489666765E-05</v>
       </c>
       <c r="T6">
-        <v>6.843009272765896E-05</v>
+        <v>7.538482489666765E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>283.1772156666667</v>
+        <v>0.1730073333333333</v>
       </c>
       <c r="H7">
-        <v>849.531647</v>
+        <v>0.519022</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.12082</v>
       </c>
       <c r="O7">
-        <v>0.0005664102943594264</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P7">
-        <v>0.0005664102943594264</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q7">
-        <v>11.40449039894889</v>
+        <v>0.006967582004444444</v>
       </c>
       <c r="R7">
-        <v>102.64041359054</v>
+        <v>0.06270823804</v>
       </c>
       <c r="S7">
-        <v>0.000485736666667984</v>
+        <v>0.0005351033748907459</v>
       </c>
       <c r="T7">
-        <v>0.0004857366666679841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.1730073333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.519022</v>
-      </c>
-      <c r="I8">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="J8">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>71.05680966666667</v>
-      </c>
-      <c r="N8">
-        <v>213.170429</v>
-      </c>
-      <c r="O8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="P8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="Q8">
-        <v>12.29334915560422</v>
-      </c>
-      <c r="R8">
-        <v>110.640142400438</v>
-      </c>
-      <c r="S8">
-        <v>0.0005235946747413832</v>
-      </c>
-      <c r="T8">
-        <v>0.0005235946747413832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.1730073333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.519022</v>
-      </c>
-      <c r="I9">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="J9">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.005673666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.017021</v>
-      </c>
-      <c r="O9">
-        <v>7.979531220238203E-05</v>
-      </c>
-      <c r="P9">
-        <v>7.979531220238202E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.0009815859402222222</v>
-      </c>
-      <c r="R9">
-        <v>0.008834273462000001</v>
-      </c>
-      <c r="S9">
-        <v>4.180741672557728E-08</v>
-      </c>
-      <c r="T9">
-        <v>4.180741672557727E-08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.1730073333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.519022</v>
-      </c>
-      <c r="I10">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="J10">
-        <v>0.000523933243340694</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04027333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.12082</v>
-      </c>
-      <c r="O10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="P10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="Q10">
-        <v>0.006967582004444444</v>
-      </c>
-      <c r="R10">
-        <v>0.06270823804</v>
-      </c>
-      <c r="S10">
-        <v>2.967611825852915E-07</v>
-      </c>
-      <c r="T10">
-        <v>2.967611825852915E-07</v>
+        <v>0.0005351033748907458</v>
       </c>
     </row>
   </sheetData>
